--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.46199843876434</v>
+        <v>118.2768504791939</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.5105853993453</v>
+        <v>161.8316048319379</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.436592687587</v>
+        <v>146.3866235989063</v>
       </c>
       <c r="AD2" t="n">
-        <v>92461.99843876433</v>
+        <v>118276.8504791939</v>
       </c>
       <c r="AE2" t="n">
-        <v>126510.5853993453</v>
+        <v>161831.6048319378</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.809739550327629e-06</v>
+        <v>6.934030351367646e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.319444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>114436.5926875869</v>
+        <v>146386.6235989062</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.56837439227072</v>
+        <v>88.38313692414923</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.60881016533752</v>
+        <v>120.9297071283817</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.43842547589776</v>
+        <v>109.3883456059905</v>
       </c>
       <c r="AD3" t="n">
-        <v>62568.37439227072</v>
+        <v>88383.13692414922</v>
       </c>
       <c r="AE3" t="n">
-        <v>85608.81016533752</v>
+        <v>120929.7071283817</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.24081326576164e-06</v>
+        <v>8.997158401032612e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.872685185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>77438.42547589776</v>
+        <v>109388.3456059905</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.53859782129923</v>
+        <v>76.89067426683761</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.46333619662764</v>
+        <v>105.2052127089865</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.68858972455099</v>
+        <v>95.1645748645108</v>
       </c>
       <c r="AD4" t="n">
-        <v>59538.59782129923</v>
+        <v>76890.67426683761</v>
       </c>
       <c r="AE4" t="n">
-        <v>81463.33619662764</v>
+        <v>105205.2127089865</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.649301333530943e-06</v>
+        <v>9.586061111968577e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.57175925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>73688.589724551</v>
+        <v>95164.5748645108</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.80812598918519</v>
+        <v>99.06039665419391</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.9875341630724</v>
+        <v>135.5388049384759</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.34942563946839</v>
+        <v>122.6031716250915</v>
       </c>
       <c r="AD2" t="n">
-        <v>73808.12598918518</v>
+        <v>99060.39665419392</v>
       </c>
       <c r="AE2" t="n">
-        <v>100987.5341630724</v>
+        <v>135538.8049384759</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.679067204621284e-06</v>
+        <v>8.313940747004078e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.538194444444446</v>
       </c>
       <c r="AH2" t="n">
-        <v>91349.42563946839</v>
+        <v>122603.1716250915</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.07059509945744</v>
+        <v>73.9907830640349</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.08650599200975</v>
+        <v>101.2374536311431</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.63403945524978</v>
+        <v>91.57549314427067</v>
       </c>
       <c r="AD3" t="n">
-        <v>57070.59509945745</v>
+        <v>73990.7830640349</v>
       </c>
       <c r="AE3" t="n">
-        <v>78086.50599200974</v>
+        <v>101237.4536311431</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.955920141031975e-06</v>
+        <v>1.01832054120389e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.519675925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>70634.03945524977</v>
+        <v>91575.49314427067</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.31042145297017</v>
+        <v>74.5269468011178</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.20518228796347</v>
+        <v>101.9710565100942</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.50489822400789</v>
+        <v>92.23908199407305</v>
       </c>
       <c r="AD2" t="n">
-        <v>51310.42145297017</v>
+        <v>74526.9468011178</v>
       </c>
       <c r="AE2" t="n">
-        <v>70205.18228796347</v>
+        <v>101971.0565100942</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.476194568768954e-06</v>
+        <v>1.156659580637487e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.693287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>63504.89822400789</v>
+        <v>92239.08199407304</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.20860222096668</v>
+        <v>69.33687409902727</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.80235695656027</v>
+        <v>94.86977006924972</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.85420218739219</v>
+        <v>85.81553236442242</v>
       </c>
       <c r="AD2" t="n">
-        <v>53208.60222096668</v>
+        <v>69336.87409902726</v>
       </c>
       <c r="AE2" t="n">
-        <v>72802.35695656028</v>
+        <v>94869.77006924973</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.399942949568227e-06</v>
+        <v>1.118348914647834e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.537037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>65854.20218739219</v>
+        <v>85815.53236442243</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.22214989422424</v>
+        <v>69.35042177228483</v>
       </c>
       <c r="AB3" t="n">
-        <v>72.82089348079244</v>
+        <v>94.88830659348189</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.87096961176779</v>
+        <v>85.83229978879803</v>
       </c>
       <c r="AD3" t="n">
-        <v>53222.14989422425</v>
+        <v>69350.42177228483</v>
       </c>
       <c r="AE3" t="n">
-        <v>72820.89348079244</v>
+        <v>94888.30659348189</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.411194351946247e-06</v>
+        <v>1.120049332302873e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.53125</v>
       </c>
       <c r="AH3" t="n">
-        <v>65870.9696117678</v>
+        <v>85832.29978879803</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.02315962063561</v>
+        <v>72.61425367748714</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.44389385898022</v>
+        <v>99.3540253962788</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.9117046907024</v>
+        <v>89.87181665673313</v>
       </c>
       <c r="AD2" t="n">
-        <v>50023.15962063561</v>
+        <v>72614.25367748714</v>
       </c>
       <c r="AE2" t="n">
-        <v>68443.89385898021</v>
+        <v>99354.0253962788</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.379890380742726e-06</v>
+        <v>1.166382811680825e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.936342592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>61911.7046907024</v>
+        <v>89871.81665673314</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.12392726218707</v>
+        <v>101.5464752195077</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.1561156307336</v>
+        <v>138.9403673095821</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.21560213898908</v>
+        <v>125.6800936576232</v>
       </c>
       <c r="AD2" t="n">
-        <v>76123.92726218706</v>
+        <v>101546.4752195077</v>
       </c>
       <c r="AE2" t="n">
-        <v>104156.1156307336</v>
+        <v>138940.3673095821</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.444668384263381e-06</v>
+        <v>7.937707385071079e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.72337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>94215.60213898908</v>
+        <v>125680.0936576232</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.96546585756928</v>
+        <v>74.99917201702134</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.3109076421693</v>
+        <v>102.6171758835993</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.74158593037703</v>
+        <v>92.82353664140525</v>
       </c>
       <c r="AD3" t="n">
-        <v>57965.46585756929</v>
+        <v>74999.17201702134</v>
       </c>
       <c r="AE3" t="n">
-        <v>79310.9076421693</v>
+        <v>102617.1758835993</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.8433091680339e-06</v>
+        <v>9.976766606838332e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.554398148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>71741.58593037703</v>
+        <v>92823.53664140526</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.77004733733573</v>
+        <v>74.80375349678778</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.04352740152922</v>
+        <v>102.3497956429592</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.49972408463303</v>
+        <v>92.58167479566124</v>
       </c>
       <c r="AD4" t="n">
-        <v>57770.04733733572</v>
+        <v>74803.75349678777</v>
       </c>
       <c r="AE4" t="n">
-        <v>79043.52740152922</v>
+        <v>102349.7956429592</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.881428953802446e-06</v>
+        <v>1.003234091984642e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.525462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>71499.72408463302</v>
+        <v>92581.67479566124</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.09748804106037</v>
+        <v>71.96830151169881</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.12330210114368</v>
+        <v>98.47020514564935</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.66732379537166</v>
+        <v>89.07234697037397</v>
       </c>
       <c r="AD2" t="n">
-        <v>57097.48804106037</v>
+        <v>71968.30151169881</v>
       </c>
       <c r="AE2" t="n">
-        <v>78123.30210114368</v>
+        <v>98470.20514564935</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.163450471757555e-06</v>
+        <v>1.147753033363768e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.202546296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>70667.32379537166</v>
+        <v>89072.34697037397</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.35908589251027</v>
+        <v>83.82560104500689</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.16367299123694</v>
+        <v>114.6938854742497</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.36770139350321</v>
+        <v>103.7476620184962</v>
       </c>
       <c r="AD2" t="n">
-        <v>67359.08589251027</v>
+        <v>83825.60104500689</v>
       </c>
       <c r="AE2" t="n">
-        <v>92163.67299123693</v>
+        <v>114693.8854742497</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.458597460312099e-06</v>
+        <v>9.590004501942108e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.017361111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>83367.70139350322</v>
+        <v>103747.6620184962</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.27651987439748</v>
+        <v>71.82828637291468</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.63177312007103</v>
+        <v>98.27863025573301</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.4135828433689</v>
+        <v>88.89905571907414</v>
       </c>
       <c r="AD3" t="n">
-        <v>55276.51987439748</v>
+        <v>71828.28637291468</v>
       </c>
       <c r="AE3" t="n">
-        <v>75631.77312007103</v>
+        <v>98278.63025573301</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.166249405548018e-06</v>
+        <v>1.06407566787611e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.519675925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>68413.5828433689</v>
+        <v>88899.05571907414</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.61226171740383</v>
+        <v>96.5171878817514</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.98305579172805</v>
+        <v>132.0590744975694</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.63169046707236</v>
+        <v>119.4555417736316</v>
       </c>
       <c r="AD2" t="n">
-        <v>71612.26171740383</v>
+        <v>96517.18788175139</v>
       </c>
       <c r="AE2" t="n">
-        <v>97983.05579172805</v>
+        <v>132059.0744975694</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.921787809172631e-06</v>
+        <v>8.707648347072993e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.358796296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>88631.69046707236</v>
+        <v>119455.5417736316</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.40801236284184</v>
+        <v>73.21036546070664</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.17993106068539</v>
+        <v>100.1696518366751</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.81398676298484</v>
+        <v>90.60960085439719</v>
       </c>
       <c r="AD3" t="n">
-        <v>56408.01236284184</v>
+        <v>73210.36546070664</v>
       </c>
       <c r="AE3" t="n">
-        <v>77179.9310606854</v>
+        <v>100169.6518366751</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.047274117030516e-06</v>
+        <v>1.036261122383998e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.502314814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>69813.98676298484</v>
+        <v>90609.60085439718</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.67239166114415</v>
+        <v>115.3331259401108</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.693722337442</v>
+        <v>157.8038710496053</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.9840056793095</v>
+        <v>142.7432910757983</v>
       </c>
       <c r="AD2" t="n">
-        <v>89672.39166114415</v>
+        <v>115333.1259401108</v>
       </c>
       <c r="AE2" t="n">
-        <v>122693.722337442</v>
+        <v>157803.8710496053</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.015208889615308e-06</v>
+        <v>7.255866336679552e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.111111111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>110984.0056793095</v>
+        <v>142743.2910757983</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.038142993517</v>
+        <v>86.69878776393257</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.51508005651897</v>
+        <v>118.6251062991339</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.54451803009553</v>
+        <v>107.3036926453578</v>
       </c>
       <c r="AD3" t="n">
-        <v>61038.142993517</v>
+        <v>86698.78776393257</v>
       </c>
       <c r="AE3" t="n">
-        <v>83515.08005651897</v>
+        <v>118625.1062991339</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.419554197401231e-06</v>
+        <v>9.287634517848844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.774305555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>75544.51803009553</v>
+        <v>107303.6926453578</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.80774897411045</v>
+        <v>76.0570802453402</v>
       </c>
       <c r="AB4" t="n">
-        <v>80.4633565611289</v>
+        <v>104.0646525932015</v>
       </c>
       <c r="AC4" t="n">
-        <v>72.78404674198369</v>
+        <v>94.13286820538985</v>
       </c>
       <c r="AD4" t="n">
-        <v>58807.74897411045</v>
+        <v>76057.0802453402</v>
       </c>
       <c r="AE4" t="n">
-        <v>80463.35656112891</v>
+        <v>104064.6525932015</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.751371009418803e-06</v>
+        <v>9.767697958725242e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.537037037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>72784.04674198369</v>
+        <v>94132.86820538985</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.62631786683556</v>
+        <v>78.8284047118604</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.74213804843717</v>
+        <v>107.8565009904992</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.60885329436083</v>
+        <v>97.5628279135433</v>
       </c>
       <c r="AD2" t="n">
-        <v>54626.31786683555</v>
+        <v>78828.40471186041</v>
       </c>
       <c r="AE2" t="n">
-        <v>74742.13804843718</v>
+        <v>107856.5009904992</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.159856695791358e-06</v>
+        <v>1.075184663876401e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.62962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>67608.85329436083</v>
+        <v>97562.8279135433</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.19324807502701</v>
+        <v>70.47020739599627</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.14959285359421</v>
+        <v>96.42044668529826</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.07285978127108</v>
+        <v>87.21821458062406</v>
       </c>
       <c r="AD3" t="n">
-        <v>54193.248075027</v>
+        <v>70470.20739599627</v>
       </c>
       <c r="AE3" t="n">
-        <v>74149.59285359421</v>
+        <v>96420.44668529826</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.251776754637317e-06</v>
+        <v>1.088988157685416e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.57175925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>67072.85978127108</v>
+        <v>87218.21458062406</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.00124533064953</v>
+        <v>75.49048045231889</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.15039799440241</v>
+        <v>103.2894057597715</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.35990387004318</v>
+        <v>93.43160984167636</v>
       </c>
       <c r="AD2" t="n">
-        <v>52001.24533064953</v>
+        <v>75490.48045231889</v>
       </c>
       <c r="AE2" t="n">
-        <v>71150.39799440242</v>
+        <v>103289.4057597715</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.444774345849952e-06</v>
+        <v>1.141839844910545e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>64359.90387004318</v>
+        <v>93431.60984167636</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.73114612975088</v>
+        <v>73.65058554545317</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.41259223491159</v>
+        <v>100.7719803777645</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.78795185321191</v>
+        <v>91.15444400489859</v>
       </c>
       <c r="AD2" t="n">
-        <v>50731.14612975087</v>
+        <v>73650.58554545317</v>
       </c>
       <c r="AE2" t="n">
-        <v>69412.59223491159</v>
+        <v>100771.9803777645</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.42881384009925e-06</v>
+        <v>1.160737508908648e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.809027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>62787.95185321191</v>
+        <v>91154.4440048986</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.57182301215401</v>
+        <v>78.4470914896478</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.40406401788999</v>
+        <v>107.3347714175161</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.01672878532649</v>
+        <v>97.09089147875346</v>
       </c>
       <c r="AD2" t="n">
-        <v>56571.82301215401</v>
+        <v>78447.09148964781</v>
       </c>
       <c r="AE2" t="n">
-        <v>77404.06401788999</v>
+        <v>107334.7714175161</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.778670838140964e-06</v>
+        <v>1.104703807902964e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.653935185185184</v>
       </c>
       <c r="AH2" t="n">
-        <v>70016.72878532649</v>
+        <v>97090.89147875346</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.4237492735309</v>
+        <v>86.0182300605241</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.98863651566776</v>
+        <v>117.693937225244</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.92305436402444</v>
+        <v>106.4613930409756</v>
       </c>
       <c r="AD2" t="n">
-        <v>69423.74927353091</v>
+        <v>86018.2300605241</v>
       </c>
       <c r="AE2" t="n">
-        <v>94988.63651566776</v>
+        <v>117693.937225244</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.183587654790304e-06</v>
+        <v>9.135513705790642e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.185185185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>85923.05436402444</v>
+        <v>106461.3930409756</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.80817040574369</v>
+        <v>72.48790253875748</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.35920083182464</v>
+        <v>99.1811461940501</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.07158587526418</v>
+        <v>89.71543680292761</v>
       </c>
       <c r="AD3" t="n">
-        <v>55808.17040574369</v>
+        <v>72487.90253875748</v>
       </c>
       <c r="AE3" t="n">
-        <v>76359.20083182464</v>
+        <v>99181.1461940501</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.114856528600757e-06</v>
+        <v>1.051135246403658e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.508101851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>69071.58587526418</v>
+        <v>89715.43680292761</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.57045019258663</v>
+        <v>104.1573987147062</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.5035562370788</v>
+        <v>142.5127480215262</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.24356771202814</v>
+        <v>128.9115313682883</v>
       </c>
       <c r="AD2" t="n">
-        <v>78570.45019258664</v>
+        <v>104157.3987147062</v>
       </c>
       <c r="AE2" t="n">
-        <v>107503.5562370788</v>
+        <v>142512.7480215262</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.222664896560834e-06</v>
+        <v>7.58419214179791e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.914351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>97243.56771202813</v>
+        <v>128911.5313682883</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.67638331671391</v>
+        <v>85.17799098426187</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.65186039012094</v>
+        <v>116.5442850523707</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.85912143361271</v>
+        <v>105.4214620579341</v>
       </c>
       <c r="AD3" t="n">
-        <v>59676.38331671391</v>
+        <v>85177.99098426187</v>
       </c>
       <c r="AE3" t="n">
-        <v>81651.86039012094</v>
+        <v>116544.2850523707</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.587234359732899e-06</v>
+        <v>9.565777635889627e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>73859.12143361272</v>
+        <v>105421.4620579341</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.31439209724881</v>
+        <v>75.45769863323349</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.78832391683787</v>
+        <v>103.2445522286671</v>
       </c>
       <c r="AC4" t="n">
-        <v>72.1734382658493</v>
+        <v>93.39103706862821</v>
       </c>
       <c r="AD4" t="n">
-        <v>58314.39209724881</v>
+        <v>75457.69863323349</v>
       </c>
       <c r="AE4" t="n">
-        <v>79788.32391683786</v>
+        <v>103244.5522286671</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.811851332860266e-06</v>
+        <v>9.891959444649521e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.537037037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>72173.4382658493</v>
+        <v>93391.03706862821</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.72491205027896</v>
+        <v>92.10222707675138</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.19123601186404</v>
+        <v>126.0183303498471</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.86982682058094</v>
+        <v>113.9913177691284</v>
       </c>
       <c r="AD2" t="n">
-        <v>63724.91205027896</v>
+        <v>92102.22707675137</v>
       </c>
       <c r="AE2" t="n">
-        <v>87191.23601186404</v>
+        <v>126018.3303498471</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.955729620732221e-06</v>
+        <v>9.927846441096598e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>78869.82682058094</v>
+        <v>113991.3177691284</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.62164504318361</v>
+        <v>68.59206784938677</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.99925625119474</v>
+        <v>93.8506932999594</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.12774828618757</v>
+        <v>84.8937148517096</v>
       </c>
       <c r="AD2" t="n">
-        <v>52621.64504318361</v>
+        <v>68592.06784938676</v>
       </c>
       <c r="AE2" t="n">
-        <v>71999.25625119473</v>
+        <v>93850.6932999594</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.420915212485846e-06</v>
+        <v>1.129394000111856e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>65127.74828618756</v>
+        <v>84893.71485170961</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.00217234647686</v>
+        <v>81.41549495099846</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.99288696278292</v>
+        <v>111.3962719900523</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.5493552947772</v>
+        <v>100.7647681369999</v>
       </c>
       <c r="AD2" t="n">
-        <v>57002.17234647686</v>
+        <v>81415.49495099846</v>
       </c>
       <c r="AE2" t="n">
-        <v>77992.88696278291</v>
+        <v>111396.2719900523</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.753983250694071e-06</v>
+        <v>1.008309382220227e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.849537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>70549.3552947772</v>
+        <v>100764.7681369999</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.72804257541799</v>
+        <v>71.14582573605178</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.881322282497</v>
+        <v>97.34485750433927</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.73475398046833</v>
+        <v>88.05440092851484</v>
       </c>
       <c r="AD3" t="n">
-        <v>54728.042575418</v>
+        <v>71145.82573605177</v>
       </c>
       <c r="AE3" t="n">
-        <v>74881.322282497</v>
+        <v>97344.85750433928</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.214821709623668e-06</v>
+        <v>1.077108448575459e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.537037037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>67734.75398046833</v>
+        <v>88054.40092851483</v>
       </c>
     </row>
   </sheetData>
